--- a/src/test/java/DataFolder/ExcelData/XlsxData.xlsx
+++ b/src/test/java/DataFolder/ExcelData/XlsxData.xlsx
@@ -12,23 +12,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9483</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Tjhpx</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>7-1 Nihonbashikabutochō, Chuo City, Tokyo 103-0026, Japan</t>
+  </si>
+  <si>
+    <t>gNyJ@yopmail.com</t>
+  </si>
+  <si>
+    <t>447-118-7341</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>3895</t>
+  </si>
+  <si>
+    <t>TKBgS</t>
+  </si>
+  <si>
+    <t>3 Keithcot Farm Dr, Wynn Vale SA 5127, Australia</t>
+  </si>
+  <si>
+    <t>hnsf@yopmail.com</t>
+  </si>
+  <si>
+    <t>181-144-0568</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6856</t>
+  </si>
+  <si>
+    <t>ThXjE</t>
+  </si>
+  <si>
+    <t>B-105, Block B, Phase-2, Noida, Uttar Pradesh 201305, India</t>
+  </si>
+  <si>
+    <t>aCVm@yopmail.com</t>
+  </si>
+  <si>
+    <t>351-860-1553</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>4202</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>TkggO</t>
   </si>
   <si>
-    <t>Terminal</t>
-  </si>
-  <si>
     <t>3705 Chesswood Dr, North York, ON M3J 2P6, Canada</t>
   </si>
   <si>
@@ -38,13 +98,7 @@
     <t>702-558-1271</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>5</t>
   </si>
   <si>
     <t>9808</t>
@@ -62,7 +116,7 @@
     <t>114-469-2093</t>
   </si>
   <si>
-    <t>4</t>
+    <t>6</t>
   </si>
   <si>
     <t>6244</t>
@@ -80,7 +134,7 @@
     <t>463-388-6692</t>
   </si>
   <si>
-    <t>5</t>
+    <t>7</t>
   </si>
   <si>
     <t>9656</t>
@@ -98,7 +152,7 @@
     <t>779-696-0121</t>
   </si>
   <si>
-    <t>6</t>
+    <t>8</t>
   </si>
   <si>
     <t>6811</t>
@@ -116,7 +170,7 @@
     <t>300-307-7282</t>
   </si>
   <si>
-    <t>7</t>
+    <t>9</t>
   </si>
   <si>
     <t>6744</t>
@@ -131,7 +185,7 @@
     <t>399-940-1628</t>
   </si>
   <si>
-    <t>8</t>
+    <t>10</t>
   </si>
   <si>
     <t>7675</t>
@@ -149,7 +203,7 @@
     <t>242-312-6710</t>
   </si>
   <si>
-    <t>9</t>
+    <t>11</t>
   </si>
   <si>
     <t>5273</t>
@@ -167,7 +221,7 @@
     <t>789-248-9324</t>
   </si>
   <si>
-    <t>10</t>
+    <t>12</t>
   </si>
   <si>
     <t>4826</t>
@@ -185,7 +239,7 @@
     <t>640-363-8214</t>
   </si>
   <si>
-    <t>11</t>
+    <t>13</t>
   </si>
   <si>
     <t>7885</t>
@@ -203,7 +257,7 @@
     <t>483-631-7639</t>
   </si>
   <si>
-    <t>12</t>
+    <t>14</t>
   </si>
   <si>
     <t>8168</t>
@@ -263,7 +317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:J12"/>
+  <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -373,7 +427,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>24</v>
@@ -446,13 +500,13 @@
         <v>4</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s" s="0">
         <v>8</v>
@@ -463,28 +517,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>2</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s" s="0">
         <v>8</v>
@@ -495,28 +549,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>2</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>8</v>
@@ -527,22 +581,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>2</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>55</v>
@@ -565,7 +619,7 @@
         <v>58</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>59</v>
@@ -597,7 +651,7 @@
         <v>64</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>65</v>
@@ -618,6 +672,102 @@
         <v>8</v>
       </c>
       <c r="J12" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s" s="0">
         <v>9</v>
       </c>
     </row>

--- a/src/test/java/DataFolder/ExcelData/XlsxData.xlsx
+++ b/src/test/java/DataFolder/ExcelData/XlsxData.xlsx
@@ -363,7 +363,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>12</v>
